--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slit3</t>
+  </si>
+  <si>
+    <t>Robo4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slit3</t>
-  </si>
-  <si>
-    <t>Robo4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8417399999999999</v>
+        <v>6.056093000000001</v>
       </c>
       <c r="H2">
-        <v>1.68348</v>
+        <v>12.112186</v>
       </c>
       <c r="I2">
-        <v>0.0119744574213572</v>
+        <v>0.07401743124477776</v>
       </c>
       <c r="J2">
-        <v>0.008423523143208028</v>
+        <v>0.05485886923375932</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.3542805</v>
+        <v>43.1625365</v>
       </c>
       <c r="N2">
-        <v>128.708561</v>
+        <v>86.325073</v>
       </c>
       <c r="O2">
-        <v>0.6389470558360469</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P2">
-        <v>0.5413393761575827</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q2">
-        <v>54.16957206807</v>
+        <v>261.3963351598945</v>
       </c>
       <c r="R2">
-        <v>216.67828827228</v>
+        <v>1045.585340639578</v>
       </c>
       <c r="S2">
-        <v>0.007651044314610283</v>
+        <v>0.07358218535053712</v>
       </c>
       <c r="T2">
-        <v>0.004559984763393194</v>
+        <v>0.05443933200146581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8417399999999999</v>
+        <v>6.056093000000001</v>
       </c>
       <c r="H3">
-        <v>1.68348</v>
+        <v>12.112186</v>
       </c>
       <c r="I3">
-        <v>0.0119744574213572</v>
+        <v>0.07401743124477776</v>
       </c>
       <c r="J3">
-        <v>0.008423523143208028</v>
+        <v>0.05485886923375932</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03297533333333334</v>
+        <v>0.030416</v>
       </c>
       <c r="N3">
-        <v>0.098926</v>
+        <v>0.091248</v>
       </c>
       <c r="O3">
-        <v>0.0003273984571787046</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P3">
-        <v>0.00041607596813832</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q3">
-        <v>0.02775665708</v>
+        <v>0.184202124688</v>
       </c>
       <c r="R3">
-        <v>0.16653994248</v>
+        <v>1.105212748128</v>
       </c>
       <c r="S3">
-        <v>3.920418885304435E-06</v>
+        <v>5.185227586478698E-05</v>
       </c>
       <c r="T3">
-        <v>3.504825546945825E-06</v>
+        <v>5.754388607895822E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8417399999999999</v>
+        <v>6.056093000000001</v>
       </c>
       <c r="H4">
-        <v>1.68348</v>
+        <v>12.112186</v>
       </c>
       <c r="I4">
-        <v>0.0119744574213572</v>
+        <v>0.07401743124477776</v>
       </c>
       <c r="J4">
-        <v>0.008423523143208028</v>
+        <v>0.05485886923375932</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.044061</v>
+        <v>0.100667</v>
       </c>
       <c r="N4">
-        <v>0.08812200000000001</v>
+        <v>0.201334</v>
       </c>
       <c r="O4">
-        <v>0.0004374634602152387</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P4">
-        <v>0.0003706350854606983</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q4">
-        <v>0.03708790614</v>
+        <v>0.6096487140310001</v>
       </c>
       <c r="R4">
-        <v>0.14835162456</v>
+        <v>2.438594856124</v>
       </c>
       <c r="S4">
-        <v>5.238387577746964E-06</v>
+        <v>0.0001716140536060137</v>
       </c>
       <c r="T4">
-        <v>3.122053220063078E-06</v>
+        <v>0.0001269676130964073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8417399999999999</v>
+        <v>6.056093000000001</v>
       </c>
       <c r="H5">
-        <v>1.68348</v>
+        <v>12.112186</v>
       </c>
       <c r="I5">
-        <v>0.0119744574213572</v>
+        <v>0.07401743124477776</v>
       </c>
       <c r="J5">
-        <v>0.008423523143208028</v>
+        <v>0.05485886923375932</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,90 +747,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.25707166666667</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N5">
-        <v>108.771215</v>
+        <v>0.372683</v>
       </c>
       <c r="O5">
-        <v>0.3599814808690655</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P5">
-        <v>0.4574842668934997</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q5">
-        <v>30.5190275047</v>
+        <v>0.7523343025063334</v>
       </c>
       <c r="R5">
-        <v>183.1141650282</v>
+        <v>4.514005815038001</v>
       </c>
       <c r="S5">
-        <v>0.004310582915143735</v>
+        <v>0.0002117795647698186</v>
       </c>
       <c r="T5">
-        <v>0.003853629309830953</v>
+        <v>0.0002350257331181438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>57.09845533333333</v>
+      </c>
+      <c r="H6">
+        <v>171.295366</v>
+      </c>
+      <c r="I6">
+        <v>0.6978560256287368</v>
+      </c>
+      <c r="J6">
+        <v>0.7758360120743639</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.8417399999999999</v>
-      </c>
-      <c r="H6">
-        <v>1.68348</v>
-      </c>
-      <c r="I6">
-        <v>0.0119744574213572</v>
-      </c>
-      <c r="J6">
-        <v>0.008423523143208028</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03088066666666667</v>
+        <v>43.1625365</v>
       </c>
       <c r="N6">
-        <v>0.092642</v>
+        <v>86.325073</v>
       </c>
       <c r="O6">
-        <v>0.0003066013774937787</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P6">
-        <v>0.0003896458953184223</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q6">
-        <v>0.02599349236</v>
+        <v>2464.51416241862</v>
       </c>
       <c r="R6">
-        <v>0.15596095416</v>
+        <v>14787.08497451172</v>
       </c>
       <c r="S6">
-        <v>3.671385140128718E-06</v>
+        <v>0.6937524115905581</v>
       </c>
       <c r="T6">
-        <v>3.282191216870743E-06</v>
+        <v>0.7699027491805854</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>171.295366</v>
       </c>
       <c r="I7">
-        <v>0.8122734124721004</v>
+        <v>0.6978560256287368</v>
       </c>
       <c r="J7">
-        <v>0.8570998644624763</v>
+        <v>0.7758360120743639</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>64.3542805</v>
+        <v>0.030416</v>
       </c>
       <c r="N7">
-        <v>128.708561</v>
+        <v>0.091248</v>
       </c>
       <c r="O7">
-        <v>0.6389470558360469</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P7">
-        <v>0.5413393761575827</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q7">
-        <v>3674.530010638055</v>
+        <v>1.736706617418666</v>
       </c>
       <c r="R7">
-        <v>22047.18006382833</v>
+        <v>15.630359556768</v>
       </c>
       <c r="S7">
-        <v>0.5189997054329475</v>
+        <v>0.0004888770462073845</v>
       </c>
       <c r="T7">
-        <v>0.4639819059328656</v>
+        <v>0.0008138085913605895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -921,40 +921,40 @@
         <v>171.295366</v>
       </c>
       <c r="I8">
-        <v>0.8122734124721004</v>
+        <v>0.6978560256287368</v>
       </c>
       <c r="J8">
-        <v>0.8570998644624763</v>
+        <v>0.7758360120743639</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.03297533333333334</v>
+        <v>0.100667</v>
       </c>
       <c r="N8">
-        <v>0.098926</v>
+        <v>0.201334</v>
       </c>
       <c r="O8">
-        <v>0.0003273984571787046</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P8">
-        <v>0.00041607596813832</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q8">
-        <v>1.882840597435111</v>
+        <v>5.747930203040667</v>
       </c>
       <c r="R8">
-        <v>16.945565376916</v>
+        <v>34.487581218244</v>
       </c>
       <c r="S8">
-        <v>0.0002659370620506472</v>
+        <v>0.001618022935644357</v>
       </c>
       <c r="T8">
-        <v>0.0003566186558974477</v>
+        <v>0.001795626632178162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -983,134 +983,134 @@
         <v>171.295366</v>
       </c>
       <c r="I9">
-        <v>0.8122734124721004</v>
+        <v>0.6978560256287368</v>
       </c>
       <c r="J9">
-        <v>0.8570998644624763</v>
+        <v>0.7758360120743639</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.044061</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N9">
-        <v>0.08812200000000001</v>
+        <v>0.372683</v>
       </c>
       <c r="O9">
-        <v>0.0004374634602152387</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P9">
-        <v>0.0003706350854606983</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q9">
-        <v>2.515815040442</v>
+        <v>7.093207876330889</v>
       </c>
       <c r="R9">
-        <v>15.094890242652</v>
+        <v>63.838870886978</v>
       </c>
       <c r="S9">
-        <v>0.0003553399376608849</v>
+        <v>0.001996714056326787</v>
       </c>
       <c r="T9">
-        <v>0.0003176712815134029</v>
+        <v>0.00332382767023977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.09845533333333</v>
+        <v>18.615262</v>
       </c>
       <c r="H10">
-        <v>171.295366</v>
+        <v>37.230524</v>
       </c>
       <c r="I10">
-        <v>0.8122734124721004</v>
+        <v>0.2275153098191398</v>
       </c>
       <c r="J10">
-        <v>0.8570998644624763</v>
+        <v>0.1686255848135372</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.25707166666667</v>
+        <v>43.1625365</v>
       </c>
       <c r="N10">
-        <v>108.771215</v>
+        <v>86.325073</v>
       </c>
       <c r="O10">
-        <v>0.3599814808690655</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P10">
-        <v>0.4574842668934997</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q10">
-        <v>2070.222787076632</v>
+        <v>803.4819255320631</v>
       </c>
       <c r="R10">
-        <v>18632.00508368969</v>
+        <v>3213.927702128252</v>
       </c>
       <c r="S10">
-        <v>0.2924033858922759</v>
+        <v>0.226177447874861</v>
       </c>
       <c r="T10">
-        <v>0.392109703148134</v>
+        <v>0.1673360082667605</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>57.09845533333333</v>
+        <v>18.615262</v>
       </c>
       <c r="H11">
-        <v>171.295366</v>
+        <v>37.230524</v>
       </c>
       <c r="I11">
-        <v>0.8122734124721004</v>
+        <v>0.2275153098191398</v>
       </c>
       <c r="J11">
-        <v>0.8570998644624763</v>
+        <v>0.1686255848135372</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03088066666666667</v>
+        <v>0.030416</v>
       </c>
       <c r="N11">
-        <v>0.092642</v>
+        <v>0.091248</v>
       </c>
       <c r="O11">
-        <v>0.0003066013774937787</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P11">
-        <v>0.0003896458953184223</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q11">
-        <v>1.763238366330222</v>
+        <v>0.566201808992</v>
       </c>
       <c r="R11">
-        <v>15.869145296972</v>
+        <v>3.397210853952</v>
       </c>
       <c r="S11">
-        <v>0.0002490441471655182</v>
+        <v>0.0001593838966012058</v>
       </c>
       <c r="T11">
-        <v>0.00033396544406578</v>
+        <v>0.0001768788088059348</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02523366666666666</v>
+        <v>18.615262</v>
       </c>
       <c r="H12">
-        <v>0.07570099999999999</v>
+        <v>37.230524</v>
       </c>
       <c r="I12">
-        <v>0.000358970070431155</v>
+        <v>0.2275153098191398</v>
       </c>
       <c r="J12">
-        <v>0.0003787803392163797</v>
+        <v>0.1686255848135372</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>64.3542805</v>
+        <v>0.100667</v>
       </c>
       <c r="N12">
-        <v>128.708561</v>
+        <v>0.201334</v>
       </c>
       <c r="O12">
-        <v>0.6389470558360469</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P12">
-        <v>0.5413393761575827</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q12">
-        <v>1.623894462710167</v>
+        <v>1.873942579754</v>
       </c>
       <c r="R12">
-        <v>9.743366776260999</v>
+        <v>7.495770319016001</v>
       </c>
       <c r="S12">
-        <v>0.0002293628696352449</v>
+        <v>0.0005275085060216197</v>
       </c>
       <c r="T12">
-        <v>0.0002050487125321525</v>
+        <v>0.0003902739576991724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>18.615262</v>
+      </c>
+      <c r="H13">
+        <v>37.230524</v>
+      </c>
+      <c r="I13">
+        <v>0.2275153098191398</v>
+      </c>
+      <c r="J13">
+        <v>0.1686255848135372</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.02523366666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.07570099999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.000358970070431155</v>
-      </c>
-      <c r="J13">
-        <v>0.0003787803392163797</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03297533333333334</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N13">
-        <v>0.098926</v>
+        <v>0.372683</v>
       </c>
       <c r="O13">
-        <v>0.0003273984571787046</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P13">
-        <v>0.00041607596813832</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q13">
-        <v>0.0008320885695555555</v>
+        <v>2.312530562648667</v>
       </c>
       <c r="R13">
-        <v>0.007488797125999999</v>
+        <v>13.875183375892</v>
       </c>
       <c r="S13">
-        <v>1.17526247232491E-07</v>
+        <v>0.0006509695416560054</v>
       </c>
       <c r="T13">
-        <v>1.576013963512165E-07</v>
+        <v>0.0007224237802715916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02523366666666666</v>
+        <v>0.044676</v>
       </c>
       <c r="H14">
-        <v>0.07570099999999999</v>
+        <v>0.134028</v>
       </c>
       <c r="I14">
-        <v>0.000358970070431155</v>
+        <v>0.0005460290583866018</v>
       </c>
       <c r="J14">
-        <v>0.0003787803392163797</v>
+        <v>0.0006070435613903465</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.044061</v>
+        <v>43.1625365</v>
       </c>
       <c r="N14">
-        <v>0.08812200000000001</v>
+        <v>86.325073</v>
       </c>
       <c r="O14">
-        <v>0.0004374634602152387</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P14">
-        <v>0.0003706350854606983</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q14">
-        <v>0.001111820587</v>
+        <v>1.928329480674</v>
       </c>
       <c r="R14">
-        <v>0.006670923521999999</v>
+        <v>11.569976884044</v>
       </c>
       <c r="S14">
-        <v>1.57036289124521E-07</v>
+        <v>0.0005428182349116165</v>
       </c>
       <c r="T14">
-        <v>1.403892833962952E-07</v>
+        <v>0.0006024011511623469</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02523366666666666</v>
+        <v>0.044676</v>
       </c>
       <c r="H15">
-        <v>0.07570099999999999</v>
+        <v>0.134028</v>
       </c>
       <c r="I15">
-        <v>0.000358970070431155</v>
+        <v>0.0005460290583866018</v>
       </c>
       <c r="J15">
-        <v>0.0003787803392163797</v>
+        <v>0.0006070435613903465</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>36.25707166666667</v>
+        <v>0.030416</v>
       </c>
       <c r="N15">
-        <v>108.771215</v>
+        <v>0.091248</v>
       </c>
       <c r="O15">
-        <v>0.3599814808690655</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P15">
-        <v>0.4574842668934997</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q15">
-        <v>0.914898860746111</v>
+        <v>0.001358865216</v>
       </c>
       <c r="R15">
-        <v>8.234089746714998</v>
+        <v>0.012229786944</v>
       </c>
       <c r="S15">
-        <v>0.0001292225775414799</v>
+        <v>3.825159680565049E-07</v>
       </c>
       <c r="T15">
-        <v>0.0001732860458000766</v>
+        <v>6.367547495877798E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02523366666666666</v>
+        <v>0.044676</v>
       </c>
       <c r="H16">
-        <v>0.07570099999999999</v>
+        <v>0.134028</v>
       </c>
       <c r="I16">
-        <v>0.000358970070431155</v>
+        <v>0.0005460290583866018</v>
       </c>
       <c r="J16">
-        <v>0.0003787803392163797</v>
+        <v>0.0006070435613903465</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.03088066666666667</v>
+        <v>0.100667</v>
       </c>
       <c r="N16">
-        <v>0.092642</v>
+        <v>0.201334</v>
       </c>
       <c r="O16">
-        <v>0.0003066013774937787</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P16">
-        <v>0.0003896458953184223</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q16">
-        <v>0.0007792324491111111</v>
+        <v>0.004497398892</v>
       </c>
       <c r="R16">
-        <v>0.007013092041999999</v>
+        <v>0.026984393352</v>
       </c>
       <c r="S16">
-        <v>1.100607180732309E-07</v>
+        <v>1.26600259588191E-06</v>
       </c>
       <c r="T16">
-        <v>1.47590204402982E-07</v>
+        <v>1.404966473276193E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,929 +1458,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>10.1875185</v>
+        <v>0.044676</v>
       </c>
       <c r="H17">
-        <v>20.375037</v>
+        <v>0.134028</v>
       </c>
       <c r="I17">
-        <v>0.1449259943777636</v>
+        <v>0.0005460290583866018</v>
       </c>
       <c r="J17">
-        <v>0.1019492929605459</v>
+        <v>0.0006070435613903465</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>64.3542805</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N17">
-        <v>128.708561</v>
+        <v>0.372683</v>
       </c>
       <c r="O17">
-        <v>0.6389470558360469</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P17">
-        <v>0.5413393761575827</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q17">
-        <v>655.6104231479393</v>
+        <v>0.005549995236</v>
       </c>
       <c r="R17">
-        <v>2622.441692591757</v>
+        <v>0.049949957124</v>
       </c>
       <c r="S17">
-        <v>0.09260003742178355</v>
+        <v>1.562304911046844E-06</v>
       </c>
       <c r="T17">
-        <v>0.05518916665096857</v>
+        <v>2.600689005135702E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.005334999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.016005</v>
+      </c>
+      <c r="I18">
+        <v>6.520424895900529E-05</v>
+      </c>
+      <c r="J18">
+        <v>7.249031694908894E-05</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>10.1875185</v>
-      </c>
-      <c r="H18">
-        <v>20.375037</v>
-      </c>
-      <c r="I18">
-        <v>0.1449259943777636</v>
-      </c>
-      <c r="J18">
-        <v>0.1019492929605459</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03297533333333334</v>
+        <v>43.1625365</v>
       </c>
       <c r="N18">
-        <v>0.098926</v>
+        <v>86.325073</v>
       </c>
       <c r="O18">
-        <v>0.0003273984571787046</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P18">
-        <v>0.00041607596813832</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q18">
-        <v>0.335936818377</v>
+        <v>0.2302721322275</v>
       </c>
       <c r="R18">
-        <v>2.015620910262</v>
+        <v>1.381632793365</v>
       </c>
       <c r="S18">
-        <v>4.744854696436942E-05</v>
+        <v>6.482082736264377E-05</v>
       </c>
       <c r="T18">
-        <v>4.241865076957636E-05</v>
+        <v>7.19359419252198E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>10.1875185</v>
+        <v>0.005334999999999999</v>
       </c>
       <c r="H19">
-        <v>20.375037</v>
+        <v>0.016005</v>
       </c>
       <c r="I19">
-        <v>0.1449259943777636</v>
+        <v>6.520424895900529E-05</v>
       </c>
       <c r="J19">
-        <v>0.1019492929605459</v>
+        <v>7.249031694908894E-05</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.044061</v>
+        <v>0.030416</v>
       </c>
       <c r="N19">
-        <v>0.08812200000000001</v>
+        <v>0.091248</v>
       </c>
       <c r="O19">
-        <v>0.0004374634602152387</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P19">
-        <v>0.0003706350854606983</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q19">
-        <v>0.4488722526285</v>
+        <v>0.00016226936</v>
       </c>
       <c r="R19">
-        <v>1.795489010514</v>
+        <v>0.00146042424</v>
       </c>
       <c r="S19">
-        <v>6.33998269756307E-05</v>
+        <v>4.567827669400692E-08</v>
       </c>
       <c r="T19">
-        <v>3.778598490908971E-05</v>
+        <v>7.603828876915581E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>10.1875185</v>
+        <v>0.005334999999999999</v>
       </c>
       <c r="H20">
-        <v>20.375037</v>
+        <v>0.016005</v>
       </c>
       <c r="I20">
-        <v>0.1449259943777636</v>
+        <v>6.520424895900529E-05</v>
       </c>
       <c r="J20">
-        <v>0.1019492929605459</v>
+        <v>7.249031694908894E-05</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>36.25707166666667</v>
+        <v>0.100667</v>
       </c>
       <c r="N20">
-        <v>108.771215</v>
+        <v>0.201334</v>
       </c>
       <c r="O20">
-        <v>0.3599814808690655</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P20">
-        <v>0.4574842668934997</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q20">
-        <v>369.3695883599925</v>
+        <v>0.0005370584449999999</v>
       </c>
       <c r="R20">
-        <v>2216.217530159955</v>
+        <v>0.00322235067</v>
       </c>
       <c r="S20">
-        <v>0.0521706740725292</v>
+        <v>1.511801380837584E-07</v>
       </c>
       <c r="T20">
-        <v>0.04664019755036599</v>
+        <v>1.677745575908427E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>10.1875185</v>
+        <v>0.005334999999999999</v>
       </c>
       <c r="H21">
-        <v>20.375037</v>
+        <v>0.016005</v>
       </c>
       <c r="I21">
-        <v>0.1449259943777636</v>
+        <v>6.520424895900529E-05</v>
       </c>
       <c r="J21">
-        <v>0.1019492929605459</v>
+        <v>7.249031694908894E-05</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.03088066666666667</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N21">
-        <v>0.092642</v>
+        <v>0.372683</v>
       </c>
       <c r="O21">
-        <v>0.0003066013774937787</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P21">
-        <v>0.0003896458953184223</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q21">
-        <v>0.314597362959</v>
+        <v>0.0006627546016666666</v>
       </c>
       <c r="R21">
-        <v>1.887584177754</v>
+        <v>0.005964791414999999</v>
       </c>
       <c r="S21">
-        <v>4.443450951087794E-05</v>
+        <v>1.865631815837342E-07</v>
       </c>
       <c r="T21">
-        <v>3.972412353269205E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.060578</v>
-      </c>
-      <c r="H22">
-        <v>6.181734</v>
-      </c>
-      <c r="I22">
-        <v>0.02931345014420768</v>
-      </c>
-      <c r="J22">
-        <v>0.03093115416527428</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>64.3542805</v>
-      </c>
-      <c r="N22">
-        <v>128.708561</v>
-      </c>
-      <c r="O22">
-        <v>0.6389470558360469</v>
-      </c>
-      <c r="P22">
-        <v>0.5413393761575827</v>
-      </c>
-      <c r="Q22">
-        <v>132.607014604129</v>
-      </c>
-      <c r="R22">
-        <v>795.6420876247739</v>
-      </c>
-      <c r="S22">
-        <v>0.01872974266603824</v>
-      </c>
-      <c r="T22">
-        <v>0.01674425169966359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.060578</v>
-      </c>
-      <c r="H23">
-        <v>6.181734</v>
-      </c>
-      <c r="I23">
-        <v>0.02931345014420768</v>
-      </c>
-      <c r="J23">
-        <v>0.03093115416527428</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.03297533333333334</v>
-      </c>
-      <c r="N23">
-        <v>0.098926</v>
-      </c>
-      <c r="O23">
-        <v>0.0003273984571787046</v>
-      </c>
-      <c r="P23">
-        <v>0.00041607596813832</v>
-      </c>
-      <c r="Q23">
-        <v>0.06794824640933333</v>
-      </c>
-      <c r="R23">
-        <v>0.611534217684</v>
-      </c>
-      <c r="S23">
-        <v>9.597178351798468E-06</v>
-      </c>
-      <c r="T23">
-        <v>1.286970991495212E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.060578</v>
-      </c>
-      <c r="H24">
-        <v>6.181734</v>
-      </c>
-      <c r="I24">
-        <v>0.02931345014420768</v>
-      </c>
-      <c r="J24">
-        <v>0.03093115416527428</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.5</v>
-      </c>
-      <c r="M24">
-        <v>0.044061</v>
-      </c>
-      <c r="N24">
-        <v>0.08812200000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.0004374634602152387</v>
-      </c>
-      <c r="P24">
-        <v>0.0003706350854606983</v>
-      </c>
-      <c r="Q24">
-        <v>0.09079112725800001</v>
-      </c>
-      <c r="R24">
-        <v>0.544746763548</v>
-      </c>
-      <c r="S24">
-        <v>1.282356333093198E-05</v>
-      </c>
-      <c r="T24">
-        <v>1.146417096744447E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.060578</v>
-      </c>
-      <c r="H25">
-        <v>6.181734</v>
-      </c>
-      <c r="I25">
-        <v>0.02931345014420768</v>
-      </c>
-      <c r="J25">
-        <v>0.03093115416527428</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>36.25707166666667</v>
-      </c>
-      <c r="N25">
-        <v>108.771215</v>
-      </c>
-      <c r="O25">
-        <v>0.3599814808690655</v>
-      </c>
-      <c r="P25">
-        <v>0.4574842668934997</v>
-      </c>
-      <c r="Q25">
-        <v>74.71052422075667</v>
-      </c>
-      <c r="R25">
-        <v>672.39471798681</v>
-      </c>
-      <c r="S25">
-        <v>0.0105522991922934</v>
-      </c>
-      <c r="T25">
-        <v>0.01415051638747032</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.060578</v>
-      </c>
-      <c r="H26">
-        <v>6.181734</v>
-      </c>
-      <c r="I26">
-        <v>0.02931345014420768</v>
-      </c>
-      <c r="J26">
-        <v>0.03093115416527428</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.03088066666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.092642</v>
-      </c>
-      <c r="O26">
-        <v>0.0003066013774937787</v>
-      </c>
-      <c r="P26">
-        <v>0.0003896458953184223</v>
-      </c>
-      <c r="Q26">
-        <v>0.06363202235866666</v>
-      </c>
-      <c r="R26">
-        <v>0.572688201228</v>
-      </c>
-      <c r="S26">
-        <v>8.98754419330928E-06</v>
-      </c>
-      <c r="T26">
-        <v>1.205219725796044E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.08109999999999999</v>
-      </c>
-      <c r="H27">
-        <v>0.2433</v>
-      </c>
-      <c r="I27">
-        <v>0.00115371551413984</v>
-      </c>
-      <c r="J27">
-        <v>0.001217384929278942</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>64.3542805</v>
-      </c>
-      <c r="N27">
-        <v>128.708561</v>
-      </c>
-      <c r="O27">
-        <v>0.6389470558360469</v>
-      </c>
-      <c r="P27">
-        <v>0.5413393761575827</v>
-      </c>
-      <c r="Q27">
-        <v>5.21913214855</v>
-      </c>
-      <c r="R27">
-        <v>31.3147928913</v>
-      </c>
-      <c r="S27">
-        <v>0.0007371631310320217</v>
-      </c>
-      <c r="T27">
-        <v>0.0006590183981595053</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.08109999999999999</v>
-      </c>
-      <c r="H28">
-        <v>0.2433</v>
-      </c>
-      <c r="I28">
-        <v>0.00115371551413984</v>
-      </c>
-      <c r="J28">
-        <v>0.001217384929278942</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M28">
-        <v>0.03297533333333334</v>
-      </c>
-      <c r="N28">
-        <v>0.098926</v>
-      </c>
-      <c r="O28">
-        <v>0.0003273984571787046</v>
-      </c>
-      <c r="P28">
-        <v>0.00041607596813832</v>
-      </c>
-      <c r="Q28">
-        <v>0.002674299533333333</v>
-      </c>
-      <c r="R28">
-        <v>0.0240686958</v>
-      </c>
-      <c r="S28">
-        <v>3.777246793525194E-07</v>
-      </c>
-      <c r="T28">
-        <v>5.065246130467361E-07</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.08109999999999999</v>
-      </c>
-      <c r="H29">
-        <v>0.2433</v>
-      </c>
-      <c r="I29">
-        <v>0.00115371551413984</v>
-      </c>
-      <c r="J29">
-        <v>0.001217384929278942</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.5</v>
-      </c>
-      <c r="M29">
-        <v>0.044061</v>
-      </c>
-      <c r="N29">
-        <v>0.08812200000000001</v>
-      </c>
-      <c r="O29">
-        <v>0.0004374634602152387</v>
-      </c>
-      <c r="P29">
-        <v>0.0003706350854606983</v>
-      </c>
-      <c r="Q29">
-        <v>0.0035733471</v>
-      </c>
-      <c r="R29">
-        <v>0.0214400826</v>
-      </c>
-      <c r="S29">
-        <v>5.047083809196174E-07</v>
-      </c>
-      <c r="T29">
-        <v>4.512055673018669E-07</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.08109999999999999</v>
-      </c>
-      <c r="H30">
-        <v>0.2433</v>
-      </c>
-      <c r="I30">
-        <v>0.00115371551413984</v>
-      </c>
-      <c r="J30">
-        <v>0.001217384929278942</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>36.25707166666667</v>
-      </c>
-      <c r="N30">
-        <v>108.771215</v>
-      </c>
-      <c r="O30">
-        <v>0.3599814808690655</v>
-      </c>
-      <c r="P30">
-        <v>0.4574842668934997</v>
-      </c>
-      <c r="Q30">
-        <v>2.940448512166666</v>
-      </c>
-      <c r="R30">
-        <v>26.4640366095</v>
-      </c>
-      <c r="S30">
-        <v>0.0004153162192816747</v>
-      </c>
-      <c r="T30">
-        <v>0.0005569344518983718</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.08109999999999999</v>
-      </c>
-      <c r="H31">
-        <v>0.2433</v>
-      </c>
-      <c r="I31">
-        <v>0.00115371551413984</v>
-      </c>
-      <c r="J31">
-        <v>0.001217384929278942</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.03088066666666667</v>
-      </c>
-      <c r="N31">
-        <v>0.092642</v>
-      </c>
-      <c r="O31">
-        <v>0.0003066013774937787</v>
-      </c>
-      <c r="P31">
-        <v>0.0003896458953184223</v>
-      </c>
-      <c r="Q31">
-        <v>0.002504422066666667</v>
-      </c>
-      <c r="R31">
-        <v>0.0225397986</v>
-      </c>
-      <c r="S31">
-        <v>3.53730765871218E-07</v>
-      </c>
-      <c r="T31">
-        <v>4.743490407160476E-07</v>
+        <v>3.105621775091541E-07</v>
       </c>
     </row>
   </sheetData>
